--- a/10.python/dAnalysis/04_AnalysisExam_class/3_제주맛집_크롤링_지도/files/3_3_location_inform.xlsx
+++ b/10.python/dAnalysis/04_AnalysisExam_class/3_제주맛집_크롤링_지도/files/3_3_location_inform.xlsx
@@ -157,6 +157,9 @@
     <t>다람쥐식탁</t>
   </si>
   <si>
+    <t>다랑쉬오름</t>
+  </si>
+  <si>
     <t>다이브스테이</t>
   </si>
   <si>
@@ -548,9 +551,6 @@
   </si>
   <si>
     <t>안녕협재씨</t>
-  </si>
-  <si>
-    <t>앙뚜아네트</t>
   </si>
   <si>
     <t>애월더선셋</t>
@@ -2015,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>126.619741905076</v>
+        <v>126.8215359246156</v>
       </c>
       <c r="C45" s="1">
-        <v>33.2536861514236</v>
+        <v>33.47768585996772</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2029,10 +2029,10 @@
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>126.672468900311</v>
+        <v>126.619741905076</v>
       </c>
       <c r="C46" s="1">
-        <v>33.5419485707121</v>
+        <v>33.2536861514236</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2043,10 +2043,10 @@
         <v>49</v>
       </c>
       <c r="B47" s="1">
-        <v>126.6122507532048</v>
+        <v>126.672468900311</v>
       </c>
       <c r="C47" s="1">
-        <v>33.535596951169</v>
+        <v>33.5419485707121</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="1">
-        <v>128.637838359248</v>
+        <v>126.6122507532048</v>
       </c>
       <c r="C48" s="1">
-        <v>35.89984054200828</v>
+        <v>33.535596951169</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2071,10 +2071,10 @@
         <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>126.487257224969</v>
+        <v>128.637838359248</v>
       </c>
       <c r="C49" s="1">
-        <v>33.4919924989596</v>
+        <v>35.89984054200828</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2085,13 +2085,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="1">
-        <v>126.519586532616</v>
+        <v>126.487257224969</v>
       </c>
       <c r="C50" s="1">
-        <v>33.4989236665696</v>
+        <v>33.4919924989596</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="1">
-        <v>128.669648099054</v>
+        <v>126.519586532616</v>
       </c>
       <c r="C51" s="1">
-        <v>37.6581851795925</v>
+        <v>33.4989236665696</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="1">
-        <v>126.466549956171</v>
+        <v>128.669648099054</v>
       </c>
       <c r="C52" s="1">
-        <v>33.5073979938833</v>
+        <v>37.6581851795925</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>126.505946262613</v>
+        <v>126.466549956171</v>
       </c>
       <c r="C53" s="1">
-        <v>33.49271396024</v>
+        <v>33.5073979938833</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2141,10 +2141,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="1">
-        <v>126.5186043481248</v>
+        <v>126.505946262613</v>
       </c>
       <c r="C54" s="1">
-        <v>33.51538650964344</v>
+        <v>33.49271396024</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2155,10 +2155,10 @@
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>126.251612539436</v>
+        <v>126.5186043481248</v>
       </c>
       <c r="C55" s="1">
-        <v>33.4018902224406</v>
+        <v>33.51538650964344</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="1">
-        <v>126.5353569415259</v>
+        <v>126.251612539436</v>
       </c>
       <c r="C56" s="1">
-        <v>33.51409989648781</v>
+        <v>33.4018902224406</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>126.572546978954</v>
+        <v>126.5353569415259</v>
       </c>
       <c r="C57" s="1">
-        <v>33.2552207390825</v>
+        <v>33.51409989648781</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2197,10 +2197,10 @@
         <v>60</v>
       </c>
       <c r="B58" s="1">
-        <v>126.527804555978</v>
+        <v>126.572546978954</v>
       </c>
       <c r="C58" s="1">
-        <v>33.513074179864</v>
+        <v>33.2552207390825</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2211,10 +2211,10 @@
         <v>61</v>
       </c>
       <c r="B59" s="1">
-        <v>126.676999059308</v>
+        <v>126.527804555978</v>
       </c>
       <c r="C59" s="1">
-        <v>33.2760210014731</v>
+        <v>33.513074179864</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2225,10 +2225,10 @@
         <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>126.515637551196</v>
+        <v>126.676999059308</v>
       </c>
       <c r="C60" s="1">
-        <v>33.5146861304137</v>
+        <v>33.2760210014731</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2239,10 +2239,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="1">
-        <v>126.483388833457</v>
+        <v>126.515637551196</v>
       </c>
       <c r="C61" s="1">
-        <v>33.4838368620667</v>
+        <v>33.5146861304137</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>64</v>
       </c>
       <c r="B62" s="1">
-        <v>126.636399605678</v>
+        <v>126.483388833457</v>
       </c>
       <c r="C62" s="1">
-        <v>33.5390097038327</v>
+        <v>33.4838368620667</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2267,10 +2267,10 @@
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>126.39201266863</v>
+        <v>126.636399605678</v>
       </c>
       <c r="C63" s="1">
-        <v>33.4860621223485</v>
+        <v>33.5390097038327</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>126.897326953126</v>
+        <v>126.39201266863</v>
       </c>
       <c r="C64" s="1">
-        <v>33.5131489720297</v>
+        <v>33.4860621223485</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2295,13 +2295,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="1">
-        <v>126.752858386101</v>
+        <v>126.897326953126</v>
       </c>
       <c r="C65" s="1">
-        <v>33.3887069884228</v>
+        <v>33.5131489720297</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>126.534376494097</v>
+        <v>126.752858386101</v>
       </c>
       <c r="C66" s="1">
-        <v>33.4909703721936</v>
+        <v>33.3887069884228</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2323,10 +2323,10 @@
         <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>126.321048106969</v>
+        <v>126.534376494097</v>
       </c>
       <c r="C67" s="1">
-        <v>33.4643081022978</v>
+        <v>33.4909703721936</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2337,13 +2337,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="1">
-        <v>126.9242830882885</v>
+        <v>126.321048106969</v>
       </c>
       <c r="C68" s="1">
-        <v>37.55934160337756</v>
+        <v>33.4643081022978</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>126.8144344230491</v>
+        <v>126.9242830882885</v>
       </c>
       <c r="C69" s="1">
-        <v>33.36882360726549</v>
+        <v>37.55934160337756</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="1">
-        <v>126.904182329436</v>
+        <v>126.8144344230491</v>
       </c>
       <c r="C70" s="1">
-        <v>37.5541399613278</v>
+        <v>33.36882360726549</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="1">
-        <v>126.8442963119275</v>
+        <v>126.904182329436</v>
       </c>
       <c r="C71" s="1">
-        <v>33.53298476390037</v>
+        <v>37.5541399613278</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="1">
-        <v>126.251784334768</v>
+        <v>126.8442963119275</v>
       </c>
       <c r="C72" s="1">
-        <v>33.402414179625</v>
+        <v>33.53298476390037</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2407,10 +2407,10 @@
         <v>75</v>
       </c>
       <c r="B73" s="1">
-        <v>127.04925138577</v>
+        <v>126.251784334768</v>
       </c>
       <c r="C73" s="1">
-        <v>37.5460478693288</v>
+        <v>33.402414179625</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2421,10 +2421,10 @@
         <v>76</v>
       </c>
       <c r="B74" s="1">
-        <v>126.311651375914</v>
+        <v>127.04925138577</v>
       </c>
       <c r="C74" s="1">
-        <v>33.4626081855416</v>
+        <v>37.5460478693288</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2435,13 +2435,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="1">
-        <v>126.333571516211</v>
+        <v>126.311651375914</v>
       </c>
       <c r="C75" s="1">
-        <v>33.3101922253042</v>
+        <v>33.4626081855416</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="1">
-        <v>126.531441501793</v>
+        <v>126.333571516211</v>
       </c>
       <c r="C76" s="1">
-        <v>33.4988789047125</v>
+        <v>33.3101922253042</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2463,10 +2463,10 @@
         <v>79</v>
       </c>
       <c r="B77" s="1">
-        <v>126.655597627696</v>
+        <v>126.531441501793</v>
       </c>
       <c r="C77" s="1">
-        <v>37.5294893298242</v>
+        <v>33.4988789047125</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2477,13 +2477,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="1">
-        <v>126.792962824224</v>
+        <v>126.655597627696</v>
       </c>
       <c r="C78" s="1">
-        <v>33.5561833763201</v>
+        <v>37.5294893298242</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>126.8352309533545</v>
+        <v>126.792962824224</v>
       </c>
       <c r="C79" s="1">
-        <v>33.53842048846555</v>
+        <v>33.5561833763201</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>126.800871928106</v>
+        <v>126.8352309533545</v>
       </c>
       <c r="C80" s="1">
-        <v>33.4882554533079</v>
+        <v>33.53842048846555</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2519,10 +2519,10 @@
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>126.2493868488858</v>
+        <v>126.800871928106</v>
       </c>
       <c r="C81" s="1">
-        <v>33.39971116351552</v>
+        <v>33.4882554533079</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2533,13 +2533,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="1">
-        <v>126.243659578692</v>
+        <v>126.2493868488858</v>
       </c>
       <c r="C82" s="1">
-        <v>33.3962665795809</v>
+        <v>33.39971116351552</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2547,10 +2547,10 @@
         <v>85</v>
       </c>
       <c r="B83" s="1">
-        <v>126.258817154541</v>
+        <v>126.243659578692</v>
       </c>
       <c r="C83" s="1">
-        <v>33.4091714181718</v>
+        <v>33.3962665795809</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="1">
-        <v>126.264871685447</v>
+        <v>126.258817154541</v>
       </c>
       <c r="C84" s="1">
-        <v>33.3887377492719</v>
+        <v>33.4091714181718</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="1">
-        <v>126.850184971014</v>
+        <v>126.264871685447</v>
       </c>
       <c r="C85" s="1">
-        <v>33.5324709034017</v>
+        <v>33.3887377492719</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="1">
-        <v>126.902224926828</v>
+        <v>126.850184971014</v>
       </c>
       <c r="C86" s="1">
-        <v>33.49148199144111</v>
+        <v>33.5324709034017</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="1">
-        <v>126.941097504218</v>
+        <v>126.902224926828</v>
       </c>
       <c r="C87" s="1">
-        <v>37.5414375410379</v>
+        <v>33.49148199144111</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>126.263427426534</v>
+        <v>126.941097504218</v>
       </c>
       <c r="C88" s="1">
-        <v>33.410114888054</v>
+        <v>37.5414375410379</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2631,10 +2631,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="1">
-        <v>127.170301318472</v>
+        <v>126.263427426534</v>
       </c>
       <c r="C89" s="1">
-        <v>37.60034815839677</v>
+        <v>33.410114888054</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2645,10 +2645,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="1">
-        <v>126.7323666186343</v>
+        <v>127.170301318472</v>
       </c>
       <c r="C90" s="1">
-        <v>37.66957750531881</v>
+        <v>37.60034815839677</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2659,10 +2659,10 @@
         <v>93</v>
       </c>
       <c r="B91" s="1">
-        <v>126.249828956914</v>
+        <v>126.7323666186343</v>
       </c>
       <c r="C91" s="1">
-        <v>33.217732821842</v>
+        <v>37.66957750531881</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2673,10 +2673,10 @@
         <v>94</v>
       </c>
       <c r="B92" s="1">
-        <v>126.656859537391</v>
+        <v>126.249828956914</v>
       </c>
       <c r="C92" s="1">
-        <v>33.27446673109487</v>
+        <v>33.217732821842</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2687,13 +2687,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="1">
-        <v>126.480579828486</v>
+        <v>126.656859537391</v>
       </c>
       <c r="C93" s="1">
-        <v>33.4771172717429</v>
+        <v>33.27446673109487</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="1">
-        <v>126.25198273649</v>
+        <v>126.480579828486</v>
       </c>
       <c r="C94" s="1">
-        <v>33.4033458147276</v>
+        <v>33.4771172717429</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2715,10 +2715,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="1">
-        <v>126.604145948421</v>
+        <v>126.25198273649</v>
       </c>
       <c r="C95" s="1">
-        <v>33.2415952821835</v>
+        <v>33.4033458147276</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2729,10 +2729,10 @@
         <v>98</v>
       </c>
       <c r="B96" s="1">
-        <v>126.6195497744862</v>
+        <v>126.604145948421</v>
       </c>
       <c r="C96" s="1">
-        <v>33.25097165010218</v>
+        <v>33.2415952821835</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>99</v>
       </c>
       <c r="B97" s="1">
-        <v>126.352593551465</v>
+        <v>126.6195497744862</v>
       </c>
       <c r="C97" s="1">
-        <v>33.31110694796215</v>
+        <v>33.25097165010218</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2757,10 +2757,10 @@
         <v>100</v>
       </c>
       <c r="B98" s="1">
-        <v>129.440598278195</v>
+        <v>126.352593551465</v>
       </c>
       <c r="C98" s="1">
-        <v>35.63185535405999</v>
+        <v>33.31110694796215</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2771,13 +2771,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="1">
-        <v>126.6414615517299</v>
+        <v>129.440598278195</v>
       </c>
       <c r="C99" s="1">
-        <v>33.54536805977742</v>
+        <v>35.63185535405999</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="1">
-        <v>126.263436208895</v>
+        <v>126.6414615517299</v>
       </c>
       <c r="C100" s="1">
-        <v>33.410093302084</v>
+        <v>33.54536805977742</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="1">
-        <v>126.5616917983094</v>
+        <v>126.263436208895</v>
       </c>
       <c r="C101" s="1">
-        <v>33.261952382819</v>
+        <v>33.410093302084</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="1">
-        <v>126.387439255121</v>
+        <v>126.5616917983094</v>
       </c>
       <c r="C102" s="1">
-        <v>33.305048981119</v>
+        <v>33.261952382819</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="1">
-        <v>126.6673937851523</v>
+        <v>126.387439255121</v>
       </c>
       <c r="C103" s="1">
-        <v>33.54129671552933</v>
+        <v>33.305048981119</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>106</v>
       </c>
       <c r="B104" s="1">
-        <v>126.6049225873306</v>
+        <v>126.6673937851523</v>
       </c>
       <c r="C104" s="1">
-        <v>33.26190881355424</v>
+        <v>33.54129671552933</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2855,10 +2855,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="1">
-        <v>126.837170217769</v>
+        <v>126.6049225873306</v>
       </c>
       <c r="C105" s="1">
-        <v>33.5377198075388</v>
+        <v>33.26190881355424</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2869,10 +2869,10 @@
         <v>108</v>
       </c>
       <c r="B106" s="1">
-        <v>126.8380559682081</v>
+        <v>126.837170217769</v>
       </c>
       <c r="C106" s="1">
-        <v>33.53500265194748</v>
+        <v>33.5377198075388</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2883,10 +2883,10 @@
         <v>109</v>
       </c>
       <c r="B107" s="1">
-        <v>126.75249576943</v>
+        <v>126.8380559682081</v>
       </c>
       <c r="C107" s="1">
-        <v>33.4134970849722</v>
+        <v>33.53500265194748</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2897,13 +2897,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="1">
-        <v>126.6163363707546</v>
+        <v>126.75249576943</v>
       </c>
       <c r="C108" s="1">
-        <v>33.2569936969959</v>
+        <v>33.4134970849722</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="1">
-        <v>126.919897039456</v>
+        <v>126.6163363707546</v>
       </c>
       <c r="C109" s="1">
-        <v>33.4692790800661</v>
+        <v>33.2569936969959</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="1">
-        <v>126.442503496315</v>
+        <v>126.919897039456</v>
       </c>
       <c r="C110" s="1">
-        <v>33.2532811791985</v>
+        <v>33.4692790800661</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="1">
-        <v>127.037388914855</v>
+        <v>126.442503496315</v>
       </c>
       <c r="C111" s="1">
-        <v>37.5029816070158</v>
+        <v>33.2532811791985</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="1">
-        <v>126.25100729349</v>
+        <v>127.037388914855</v>
       </c>
       <c r="C112" s="1">
-        <v>33.2189264451744</v>
+        <v>37.5029816070158</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="1">
-        <v>126.688343646646</v>
+        <v>126.25100729349</v>
       </c>
       <c r="C113" s="1">
-        <v>33.54549132858239</v>
+        <v>33.2189264451744</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="1">
-        <v>126.312201837589</v>
+        <v>126.688343646646</v>
       </c>
       <c r="C114" s="1">
-        <v>33.4620991409563</v>
+        <v>33.54549132858239</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2995,10 +2995,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="1">
-        <v>126.503340845846</v>
+        <v>126.312201837589</v>
       </c>
       <c r="C115" s="1">
-        <v>33.4733445289836</v>
+        <v>33.4620991409563</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -3009,13 +3009,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="1">
-        <v>126.791334459915</v>
+        <v>126.503340845846</v>
       </c>
       <c r="C116" s="1">
-        <v>33.5526644253877</v>
+        <v>33.4733445289836</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3023,10 +3023,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="1">
-        <v>126.357152821692</v>
+        <v>126.791334459915</v>
       </c>
       <c r="C117" s="1">
-        <v>33.2597323746481</v>
+        <v>33.5526644253877</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3037,10 +3037,10 @@
         <v>120</v>
       </c>
       <c r="B118" s="1">
-        <v>126.227348369237</v>
+        <v>126.357152821692</v>
       </c>
       <c r="C118" s="1">
-        <v>33.4102777124648</v>
+        <v>33.2597323746481</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3051,13 +3051,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="1">
-        <v>126.80998754971</v>
+        <v>126.227348369237</v>
       </c>
       <c r="C119" s="1">
-        <v>33.4904083697986</v>
+        <v>33.4102777124648</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="1">
-        <v>126.564574977419</v>
+        <v>126.80998754971</v>
       </c>
       <c r="C120" s="1">
-        <v>33.2449758067437</v>
+        <v>33.4904083697986</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="1">
-        <v>126.7923303156999</v>
+        <v>126.564574977419</v>
       </c>
       <c r="C121" s="1">
-        <v>33.5558974132864</v>
+        <v>33.2449758067437</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="1">
-        <v>126.555112221785</v>
+        <v>126.7923303156999</v>
       </c>
       <c r="C122" s="1">
-        <v>33.2430344682521</v>
+        <v>33.5558974132864</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>125</v>
       </c>
       <c r="B123" s="1">
-        <v>126.307758644674</v>
+        <v>126.555112221785</v>
       </c>
       <c r="C123" s="1">
-        <v>33.2349577089985</v>
+        <v>33.2430344682521</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3121,10 +3121,10 @@
         <v>126</v>
       </c>
       <c r="B124" s="1">
-        <v>126.30774087672</v>
+        <v>126.307758644674</v>
       </c>
       <c r="C124" s="1">
-        <v>33.2287707148007</v>
+        <v>33.2349577089985</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3135,13 +3135,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="1">
-        <v>126.6264973039457</v>
+        <v>126.30774087672</v>
       </c>
       <c r="C125" s="1">
-        <v>33.4220328349945</v>
+        <v>33.2287707148007</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="1">
-        <v>126.381106668339</v>
+        <v>126.6264973039457</v>
       </c>
       <c r="C126" s="1">
-        <v>33.4842446359284</v>
+        <v>33.4220328349945</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="1">
-        <v>126.6938319984295</v>
+        <v>126.381106668339</v>
       </c>
       <c r="C127" s="1">
-        <v>33.4325740941816</v>
+        <v>33.4842446359284</v>
       </c>
       <c r="D127">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3177,36 +3177,36 @@
         <v>130</v>
       </c>
       <c r="B128" s="1">
-        <v>126.313425322789</v>
+        <v>126.6938319984295</v>
       </c>
       <c r="C128" s="1">
-        <v>33.2413040368283</v>
+        <v>33.4325740941816</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B129" s="1">
-        <v>128.538701442661</v>
+        <v>126.3133696404118</v>
       </c>
       <c r="C129" s="1">
-        <v>34.8606897375716</v>
+        <v>33.24156429646764</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="1">
-        <v>126.554161509656</v>
+        <v>128.5392226975121</v>
       </c>
       <c r="C130" s="1">
-        <v>33.4475067639852</v>
+        <v>34.86155288490255</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="1">
-        <v>126.568206397719</v>
+        <v>126.554161509656</v>
       </c>
       <c r="C131" s="1">
-        <v>33.5249386753043</v>
+        <v>33.4475067639852</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3231,10 +3231,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="1">
-        <v>126.735702486445</v>
+        <v>126.568206397719</v>
       </c>
       <c r="C132" s="1">
-        <v>33.5482413382201</v>
+        <v>33.5249386753043</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3245,13 +3245,13 @@
         <v>134</v>
       </c>
       <c r="B133" s="1">
-        <v>126.49151979485</v>
+        <v>126.735702486445</v>
       </c>
       <c r="C133" s="1">
-        <v>33.4917504047058</v>
+        <v>33.5482413382201</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3259,13 +3259,13 @@
         <v>135</v>
       </c>
       <c r="B134" s="1">
-        <v>126.413451221879</v>
+        <v>126.49151979485</v>
       </c>
       <c r="C134" s="1">
-        <v>33.2585789099797</v>
+        <v>33.4917504047058</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3273,10 +3273,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="1">
-        <v>126.5590718446962</v>
+        <v>126.413451221879</v>
       </c>
       <c r="C135" s="1">
-        <v>33.24768024521738</v>
+        <v>33.2585789099797</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="1">
-        <v>126.357711941768</v>
+        <v>126.5590718446962</v>
       </c>
       <c r="C136" s="1">
-        <v>33.3661936453469</v>
+        <v>33.24768024521738</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3301,13 +3301,13 @@
         <v>138</v>
       </c>
       <c r="B137" s="1">
-        <v>126.498627156523</v>
+        <v>126.3577306657398</v>
       </c>
       <c r="C137" s="1">
-        <v>33.2299948343901</v>
+        <v>33.36627759113929</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3315,10 +3315,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="1">
-        <v>126.5642035970351</v>
+        <v>126.498627156523</v>
       </c>
       <c r="C138" s="1">
-        <v>33.25537661449773</v>
+        <v>33.2299948343901</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3329,13 +3329,13 @@
         <v>140</v>
       </c>
       <c r="B139" s="1">
-        <v>126.558616052674</v>
+        <v>126.5642035970351</v>
       </c>
       <c r="C139" s="1">
-        <v>33.2393033784206</v>
+        <v>33.25537661449773</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3343,13 +3343,13 @@
         <v>141</v>
       </c>
       <c r="B140" s="1">
-        <v>126.566400846169</v>
+        <v>126.558616052674</v>
       </c>
       <c r="C140" s="1">
-        <v>33.2367989759913</v>
+        <v>33.2393033784206</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3357,13 +3357,13 @@
         <v>142</v>
       </c>
       <c r="B141" s="1">
-        <v>126.3172648025269</v>
+        <v>126.566400846169</v>
       </c>
       <c r="C141" s="1">
-        <v>33.3027546946979</v>
+        <v>33.2367989759913</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="1">
-        <v>126.615933571597</v>
+        <v>126.3172648025269</v>
       </c>
       <c r="C142" s="1">
-        <v>33.2421119074451</v>
+        <v>33.3027546946979</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3385,13 +3385,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="1">
-        <v>126.677893828794</v>
+        <v>126.615933571597</v>
       </c>
       <c r="C143" s="1">
-        <v>33.5458432546933</v>
+        <v>33.2421119074451</v>
       </c>
       <c r="D143">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3399,13 +3399,13 @@
         <v>145</v>
       </c>
       <c r="B144" s="1">
-        <v>126.536501983154</v>
+        <v>126.6775858913862</v>
       </c>
       <c r="C144" s="1">
-        <v>33.2504031491774</v>
+        <v>33.54584155166335</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3413,13 +3413,13 @@
         <v>146</v>
       </c>
       <c r="B145" s="1">
-        <v>126.940537521366</v>
+        <v>126.536501983154</v>
       </c>
       <c r="C145" s="1">
-        <v>33.4591349705437</v>
+        <v>33.2504031491774</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3427,13 +3427,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="1">
-        <v>126.8003779257426</v>
+        <v>126.940537521366</v>
       </c>
       <c r="C146" s="1">
-        <v>33.38451163130228</v>
+        <v>33.4591349705437</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3441,13 +3441,13 @@
         <v>148</v>
       </c>
       <c r="B147" s="1">
-        <v>126.327321076199</v>
+        <v>126.8003779257426</v>
       </c>
       <c r="C147" s="1">
-        <v>33.3477698762559</v>
+        <v>33.38451163130228</v>
       </c>
       <c r="D147">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3455,13 +3455,13 @@
         <v>149</v>
       </c>
       <c r="B148" s="1">
-        <v>126.567579770359</v>
+        <v>126.327321076199</v>
       </c>
       <c r="C148" s="1">
-        <v>33.2466488975268</v>
+        <v>33.3477698762559</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3469,13 +3469,13 @@
         <v>150</v>
       </c>
       <c r="B149" s="1">
-        <v>126.491286666991</v>
+        <v>126.567579770359</v>
       </c>
       <c r="C149" s="1">
-        <v>33.4881899632066</v>
+        <v>33.2466488975268</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3483,10 +3483,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="1">
-        <v>129.157622703517</v>
+        <v>126.491286666991</v>
       </c>
       <c r="C150" s="1">
-        <v>35.1600985518898</v>
+        <v>33.4881899632066</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -3497,13 +3497,13 @@
         <v>152</v>
       </c>
       <c r="B151" s="1">
-        <v>126.6224051425644</v>
+        <v>129.157622703517</v>
       </c>
       <c r="C151" s="1">
-        <v>33.25424606530691</v>
+        <v>35.1600985518898</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3511,13 +3511,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>126.7121269102888</v>
+        <v>126.6224051425644</v>
       </c>
       <c r="C152" s="1">
-        <v>33.33037452211467</v>
+        <v>33.25424606530691</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3525,13 +3525,13 @@
         <v>154</v>
       </c>
       <c r="B153" s="1">
-        <v>126.48822661849</v>
+        <v>126.7121269102888</v>
       </c>
       <c r="C153" s="1">
-        <v>33.4706071151816</v>
+        <v>33.33037452211467</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3539,13 +3539,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="1">
-        <v>126.808164095859</v>
+        <v>126.48822661849</v>
       </c>
       <c r="C154" s="1">
-        <v>33.5540837076564</v>
+        <v>33.4706071151816</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3553,10 +3553,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="1">
-        <v>126.896577199828</v>
+        <v>126.808164095859</v>
       </c>
       <c r="C155" s="1">
-        <v>33.4122222066663</v>
+        <v>33.5540837076564</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -3567,10 +3567,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="1">
-        <v>126.855466622674</v>
+        <v>126.896577199828</v>
       </c>
       <c r="C156" s="1">
-        <v>33.3391570072211</v>
+        <v>33.4122222066663</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3581,10 +3581,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="1">
-        <v>126.241875940013</v>
+        <v>126.855466622674</v>
       </c>
       <c r="C157" s="1">
-        <v>33.3952062465959</v>
+        <v>33.3391570072211</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3595,10 +3595,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="1">
-        <v>126.4808185246333</v>
+        <v>126.241875940013</v>
       </c>
       <c r="C158" s="1">
-        <v>33.48904453445883</v>
+        <v>33.3952062465959</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -3609,10 +3609,10 @@
         <v>160</v>
       </c>
       <c r="B159" s="1">
-        <v>126.525603048125</v>
+        <v>126.4808185246333</v>
       </c>
       <c r="C159" s="1">
-        <v>33.2553029735526</v>
+        <v>33.48904453445883</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="1">
-        <v>126.513531251127</v>
+        <v>126.525603048125</v>
       </c>
       <c r="C160" s="1">
-        <v>33.50640127984749</v>
+        <v>33.2553029735526</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="1">
-        <v>126.537571842149</v>
+        <v>126.513531251127</v>
       </c>
       <c r="C161" s="1">
-        <v>33.4922770263572</v>
+        <v>33.50640127984749</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -3651,10 +3651,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="1">
-        <v>126.7930350914644</v>
+        <v>126.537571842149</v>
       </c>
       <c r="C162" s="1">
-        <v>33.53038703828247</v>
+        <v>33.4922770263572</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3665,10 +3665,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="1">
-        <v>126.5688129437414</v>
+        <v>126.7930350914644</v>
       </c>
       <c r="C163" s="1">
-        <v>33.24900102560021</v>
+        <v>33.53038703828247</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3679,10 +3679,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="1">
-        <v>126.538175779101</v>
+        <v>126.5688129437414</v>
       </c>
       <c r="C164" s="1">
-        <v>33.51330080867158</v>
+        <v>33.24900102560021</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3693,10 +3693,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="1">
-        <v>126.5415614572426</v>
+        <v>126.538175779101</v>
       </c>
       <c r="C165" s="1">
-        <v>33.50541904737267</v>
+        <v>33.51330080867158</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3707,13 +3707,13 @@
         <v>167</v>
       </c>
       <c r="B166" s="1">
-        <v>126.1742060465573</v>
+        <v>126.5415614572426</v>
       </c>
       <c r="C166" s="1">
-        <v>33.34308102674004</v>
+        <v>33.50541904737267</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3721,13 +3721,13 @@
         <v>168</v>
       </c>
       <c r="B167" s="1">
-        <v>126.8679163319506</v>
+        <v>126.1742060465573</v>
       </c>
       <c r="C167" s="1">
-        <v>33.35626839766113</v>
+        <v>33.34308102674004</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3735,10 +3735,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="1">
-        <v>126.863724460119</v>
+        <v>126.8679163319506</v>
       </c>
       <c r="C168" s="1">
-        <v>33.3560087082177</v>
+        <v>33.35626839766113</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="1">
-        <v>126.3010255519544</v>
+        <v>126.863724460119</v>
       </c>
       <c r="C169" s="1">
-        <v>33.22737172347889</v>
+        <v>33.3560087082177</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3763,10 +3763,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="1">
-        <v>126.4508791493221</v>
+        <v>126.3010255519544</v>
       </c>
       <c r="C170" s="1">
-        <v>33.45568460425746</v>
+        <v>33.22737172347889</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3777,10 +3777,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="1">
-        <v>126.839808889717</v>
+        <v>126.4508791493221</v>
       </c>
       <c r="C171" s="1">
-        <v>33.536049883668</v>
+        <v>33.45568460425746</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -3791,13 +3791,13 @@
         <v>173</v>
       </c>
       <c r="B172" s="1">
-        <v>126.506021163811</v>
+        <v>126.839808889717</v>
       </c>
       <c r="C172" s="1">
-        <v>33.23151030047489</v>
+        <v>33.536049883668</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3805,13 +3805,13 @@
         <v>174</v>
       </c>
       <c r="B173" s="1">
-        <v>126.540067668993</v>
+        <v>126.506021163811</v>
       </c>
       <c r="C173" s="1">
-        <v>33.5086736674934</v>
+        <v>33.23151030047489</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3819,13 +3819,13 @@
         <v>175</v>
       </c>
       <c r="B174" s="1">
-        <v>126.777214998455</v>
+        <v>126.540067668993</v>
       </c>
       <c r="C174" s="1">
-        <v>33.4485841755621</v>
+        <v>33.5086736674934</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3833,13 +3833,13 @@
         <v>176</v>
       </c>
       <c r="B175" s="1">
-        <v>126.8392976867628</v>
+        <v>126.777214998455</v>
       </c>
       <c r="C175" s="1">
-        <v>33.36683323758393</v>
+        <v>33.4485841755621</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3847,13 +3847,13 @@
         <v>177</v>
       </c>
       <c r="B176" s="1">
-        <v>126.2453300552408</v>
+        <v>126.8392976867628</v>
       </c>
       <c r="C176" s="1">
-        <v>33.39898331799428</v>
+        <v>33.36683323758393</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3861,13 +3861,13 @@
         <v>178</v>
       </c>
       <c r="B177" s="1">
-        <v>126.525454751914</v>
+        <v>126.2453300552408</v>
       </c>
       <c r="C177" s="1">
-        <v>33.5168590918142</v>
+        <v>33.39898331799428</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3917,10 +3917,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="1">
-        <v>126.906031460096</v>
+        <v>127.056015869851</v>
       </c>
       <c r="C181" s="1">
-        <v>33.44814462372958</v>
+        <v>37.2940552841451</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4267,10 +4267,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="1">
-        <v>126.83251014664</v>
+        <v>126.8326829818951</v>
       </c>
       <c r="C206" s="1">
-        <v>33.4596996808185</v>
+        <v>33.45988023593872</v>
       </c>
       <c r="D206">
         <v>11</v>
@@ -5779,10 +5779,10 @@
         <v>315</v>
       </c>
       <c r="B314" s="1">
-        <v>126.534306719271</v>
+        <v>126.5294192759159</v>
       </c>
       <c r="C314" s="1">
-        <v>33.35904026836489</v>
+        <v>33.36142463877147</v>
       </c>
       <c r="D314">
         <v>9</v>
@@ -6112,7 +6112,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A129:A130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
